--- a/output/google_maps_data_Pasar_Tradisional_Gunungkidul.xlsx
+++ b/output/google_maps_data_Pasar_Tradisional_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>-7.942886</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.942886</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.550057</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d8074e8a4a9:0xf303331a98f04b92!8m2!3d-7.9428862!4d110.5500572!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTGVHOVBhbFJSRUFF4AEA-gEECCoQOw!16s%2Fg%2F11fhw1dy54?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d8074e8a4a9:0xf303331a98f04b92!8m2!3d-7.9428862!4d110.5500572!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTGVHOVBhbFJSRUFF4AEA-gEECCoQOw!16s%2Fg%2F11fhw1dy54?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.967963</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.967963</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.602738</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Argosari+(+%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%84%EA%A6%82%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A6%AB%EA%A6%B6+)+WONOSARI/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb342f297be91:0xa9bdf81ca244e898!8m2!3d-7.9679632!4d110.6027378!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTGRqaHRlbEJSRUFF4AEA-gEECAAQMg!16s%2Fg%2F11b62v0_7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Argosari+(+%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%84%EA%A6%82%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A6%AB%EA%A6%B6+)+WONOSARI/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb342f297be91:0xa9bdf81ca244e898!8m2!3d-7.9679632!4d110.6027378!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTGRqaHRlbEJSRUFF4AEA-gEECAAQMg!16s%2Fg%2F11b62v0_7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -577,25 +570,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>-7.866076</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.866076</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.736157</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Semin/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a35dd8ac006a1:0xd0d8cd2aa7be51e3!8m2!3d-7.866076!4d110.7361572!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MWDI5aVdHaDNSUkFC4AEA-gEECAAQIg!16s%2Fg%2F11btx5bcfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Semin/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a35dd8ac006a1:0xd0d8cd2aa7be51e3!8m2!3d-7.866076!4d110.7361572!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MWDI5aVdHaDNSUkFC4AEA-gEECAAQIg!16s%2Fg%2F11btx5bcfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -614,25 +606,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.977648</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.977648</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.711158</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ponjong/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb57d9235640d:0x16e4de53bd4fe2e!8m2!3d-7.9776483!4d110.7111576!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGMyVnlPVGRSUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11cjr0n_m3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ponjong/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb57d9235640d:0x16e4de53bd4fe2e!8m2!3d-7.9776483!4d110.7111576!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGMyVnlPVGRSUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11cjr0n_m3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -651,25 +642,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.953086</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.953086</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.678545</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tengeran+Karangmojo/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5304faae7df:0x3e602c7e8a733047!8m2!3d-7.9530856!4d110.6785451!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWFVMXhVVmhuRUFF4AEA-gEECAAQLg!16s%2Fg%2F11f350jk0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tengeran+Karangmojo/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5304faae7df:0x3e602c7e8a733047!8m2!3d-7.9530856!4d110.6785451!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWFVMXhVVmhuRUFF4AEA-gEECAAQLg!16s%2Fg%2F11f350jk0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -688,25 +678,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.836376</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.836376</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.701862</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngawen+Gunungkidul/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4961d141874b:0x602b4e6d58402157!8m2!3d-7.8363763!4d110.7018618!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGN5MXlhVGRuUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11lkfxvw6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngawen+Gunungkidul/@-7.866076,110.4477661,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4961d141874b:0x602b4e6d58402157!8m2!3d-7.8363763!4d110.7018618!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGN5MXlhVGRuUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11lkfxvw6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -725,25 +714,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-8.068875999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.068875999999999</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.590057</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tanjung/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb11ed8a72497:0x95a304574a36b6af!8m2!3d-8.0688758!4d110.590057!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSGRYVm1hMFJuRUFF4AEA-gEECAAQLQ!16s%2Fg%2F11f1vmmhfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tanjung/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb11ed8a72497:0x95a304574a36b6af!8m2!3d-8.0688758!4d110.590057!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSGRYVm1hMFJuRUFF4AEA-gEECAAQLQ!16s%2Fg%2F11f1vmmhfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -762,25 +750,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>-7.865276</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.865276</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.691949</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+(Pasar+Plembang)/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4a1ee57954b1:0x87f772127f345741!8m2!3d-7.8652762!4d110.6919491!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDmZhcm1lcnNfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zT0hSdFdsTm5FQUXgAQD6AQQIABAp!16s%2Fg%2F11c2mdgyh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+(Pasar+Plembang)/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4a1ee57954b1:0x87f772127f345741!8m2!3d-7.8652762!4d110.6919491!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDmZhcm1lcnNfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zT0hSdFdsTm5FQUXgAQD6AQQIABAp!16s%2Fg%2F11c2mdgyh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -799,25 +786,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.92668</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.92668</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.685935</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wonontoro/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4bb38a6dfa97:0x7918f2a73f7e40f9!8m2!3d-7.9266801!4d110.6859351!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReU1FdFlaR1IzRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11mqxbn38v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wonontoro/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4bb38a6dfa97:0x7918f2a73f7e40f9!8m2!3d-7.9266801!4d110.6859351!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReU1FdFlaR1IzRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11mqxbn38v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -836,25 +822,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.926443</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.926443</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.685963</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4ac0562e77fd:0x70bdb342dd6049a4!8m2!3d-7.9264433!4d110.6859627!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxWHkxMU1XNVJSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11fx8hkwsc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4ac0562e77fd:0x70bdb342dd6049a4!8m2!3d-7.9264433!4d110.6859627!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxWHkxMU1XNVJSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11fx8hkwsc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -877,25 +862,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.999625</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.999625</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.651907</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+MUNGGI/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb4459dca0b8b:0x18f9abc27a346388!8m2!3d-7.9996252!4d110.6519073!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmRtWmhOWEIzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11bx1bmhqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+MUNGGI/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb4459dca0b8b:0x18f9abc27a346388!8m2!3d-7.9996252!4d110.6519073!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmRtWmhOWEIzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11bx1bmhqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -914,25 +898,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>-7.903784</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.903784</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.688291</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jati+Ayu/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4af552e78de1:0x10cf03b8887a8af4!8m2!3d-7.9037836!4d110.6882908!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNIRjZaVUZSRUFF4AEA-gEECAAQMA!16s%2Fg%2F1pyqqtj6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jati+Ayu/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4af552e78de1:0x10cf03b8887a8af4!8m2!3d-7.9037836!4d110.6882908!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNIRjZaVUZSRUFF4AEA-gEECAAQMA!16s%2Fg%2F1pyqqtj6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -951,25 +934,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.858731</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.858731</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.647251</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wotgaleh/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a49640438fe5d:0x129893c2e4416d2d!8m2!3d-7.8587309!4d110.6472508!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU9VeDVhSFJSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11b_3h405j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wotgaleh/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a49640438fe5d:0x129893c2e4416d2d!8m2!3d-7.8587309!4d110.6472508!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU9VeDVhSFJSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11b_3h405j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -988,25 +970,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.884335</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.884335</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.615467</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Nglipar/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c0a8d38df1d:0x8f09b7cdbedbde03!8m2!3d-7.8843353!4d110.6154672!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeU1YRnhkRzluUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11g6js3f4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Nglipar/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c0a8d38df1d:0x8f09b7cdbedbde03!8m2!3d-7.8843353!4d110.6154672!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeU1YRnhkRzluUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11g6js3f4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1025,25 +1006,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-8.054446</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.054446</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.614792</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Mentel/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb134e57b22cb:0xc0017bd899f0243b!8m2!3d-8.0544463!4d110.6147922!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11cs4ylg8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Mentel/@-8.0688758,110.3016659,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb134e57b22cb:0xc0017bd899f0243b!8m2!3d-8.0544463!4d110.6147922!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11cs4ylg8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1062,25 +1042,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-7.942661</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.942661</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.771121</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jimbaran/@-7.9426615,110.4827299,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bcb2d78087e11:0x2770e999d04b0d1e!8m2!3d-7.9426615!4d110.771121!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNWVIWXRaalIzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11ggkfnqvd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jimbaran/@-7.9426615,110.4827299,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bcb2d78087e11:0x2770e999d04b0d1e!8m2!3d-7.9426615!4d110.771121!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNWVIWXRaalIzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11ggkfnqvd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1099,25 +1078,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-8.128378</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.128378</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.644464</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tepus/@-7.9426615,110.4827299,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb9c112a291df:0x7aade051e30a8a88!8m2!3d-8.1283781!4d110.6444637!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY1dadGRHNUJSUkFC4AEA-gEECAAQJA!16s%2Fg%2F11c1_vk0j9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tepus/@-7.9426615,110.4827299,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb9c112a291df:0x7aade051e30a8a88!8m2!3d-8.1283781!4d110.6444637!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY1dadGRHNUJSUkFC4AEA-gEECAAQJA!16s%2Fg%2F11c1_vk0j9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1136,25 +1114,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.973187</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.973187</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.499241</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+godhong+jati/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bad593a758ebf:0x1895eab0700ec500!8m2!3d-7.9731872!4d110.4992407!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDHNvdXBfa2l0Y2hlbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGRHUllPQzFCUlJBQuABAPoBBAgAEEM!16s%2Fg%2F11ptvr3r8f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+godhong+jati/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bad593a758ebf:0x1895eab0700ec500!8m2!3d-7.9731872!4d110.4992407!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDHNvdXBfa2l0Y2hlbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGRHUllPQzFCUlJBQuABAPoBBAgAEEM!16s%2Fg%2F11ptvr3r8f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1177,25 +1154,24 @@
           <t>0822-4395-1856</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>-7.921469</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.921469</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.605403</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Karangtengah/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c9a73793fcd:0xeca8e8cb97eef5c6!8m2!3d-7.9214686!4d110.6054027!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyZG5aWVozWlJSUkFC4AEA-gEECC0QPw!16s%2Fg%2F11fz1trqmj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Karangtengah/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c9a73793fcd:0xeca8e8cb97eef5c6!8m2!3d-7.9214686!4d110.6054027!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyZG5aWVozWlJSUkFC4AEA-gEECC0QPw!16s%2Fg%2F11fz1trqmj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1214,25 +1190,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.930603</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.930603</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.592115</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Desa+(Pasar+Pahing)/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cc0691f693f:0xb47e74d3ae31b43d!8m2!3d-7.9306027!4d110.5921153!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyTUU5TFRYUlJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11c5_kz2xd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Desa+(Pasar+Pahing)/@-7.9731872,110.2108496,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cc0691f693f:0xb47e74d3ae31b43d!8m2!3d-7.9306027!4d110.5921153!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyTUU5TFRYUlJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11c5_kz2xd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1251,25 +1226,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.936974</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.936974</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.664337</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kliwon+Desa+Ngawis/@-7.9369745,110.3759463,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b28213d08c1:0x3289fafc15c2f0bf!8m2!3d-7.9369745!4d110.6643374!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNWJUbFhVa3BuRUFF4AEA-gEECAAQRw!16s%2Fg%2F11fy9b332t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kliwon+Desa+Ngawis/@-7.9369745,110.3759463,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b28213d08c1:0x3289fafc15c2f0bf!8m2!3d-7.9369745!4d110.6643374!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNWJUbFhVa3BuRUFF4AEA-gEECAAQRw!16s%2Fg%2F11fy9b332t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1288,25 +1262,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.827483</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.827483</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.752652</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Candi/@-7.9369745,110.3759463,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a3650a253a71b:0xb9888be3e3987a83!8m2!3d-7.8274827!4d110.7526515!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGRHRjVOWGwzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11cp7jt4yb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Candi/@-7.9369745,110.3759463,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a3650a253a71b:0xb9888be3e3987a83!8m2!3d-7.8274827!4d110.7526515!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGRHRjVOWGwzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11cp7jt4yb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1325,25 +1298,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>-8.05311</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.05311</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.489601</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngloro/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae693036522d:0x77d6da63571d32ca!8m2!3d-8.0531105!4d110.4896012!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE16VjZTa2gzRUFF4AEA-gEECAAQRA!16s%2Fg%2F11cnbvlj58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngloro/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae693036522d:0x77d6da63571d32ca!8m2!3d-8.0531105!4d110.4896012!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE16VjZTa2gzRUFF4AEA-gEECAAQRA!16s%2Fg%2F11cnbvlj58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1366,25 +1338,24 @@
           <t>0813-2743-4746</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.945177</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.945177</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.554343</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+SUMBER+REJEKI+PLAYEN/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d4ba3435abf:0x412dcfe0b8e956ee!8m2!3d-7.945177!4d110.5543431!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdWFtVlRSbGhCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11rp5bc__n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+SUMBER+REJEKI+PLAYEN/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d4ba3435abf:0x412dcfe0b8e956ee!8m2!3d-7.945177!4d110.5543431!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdWFtVlRSbGhCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11rp5bc__n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1403,25 +1374,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>-7.930156</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.930156</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.504235</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pojok+%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A7%80/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a52968452b293:0x16a105a7117ddc36!8m2!3d-7.9301558!4d110.504235!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE9UaDFibGxuRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b8v4r11n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pojok+%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A7%80/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a52968452b293:0x16a105a7117ddc36!8m2!3d-7.9301558!4d110.504235!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE9UaDFibGxuRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b8v4r11n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1440,25 +1410,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.882014</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.882014</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.374656</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kepek+Timbulharjo/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a555b43be6331:0xa2e3e3e851310360!8m2!3d-7.8820137!4d110.3746562!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT2FYVlRjM2QzUlJBQuABAPoBBAgAED4!16s%2Fg%2F11j15kl_lp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kepek+Timbulharjo/@-8.0531105,110.2012101,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a555b43be6331:0xa2e3e3e851310360!8m2!3d-7.8820137!4d110.3746562!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT2FYVlRjM2QzUlJBQuABAPoBBAgAED4!16s%2Fg%2F11j15kl_lp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1477,25 +1446,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-8.019204</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.019204</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.742483</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bedoyo/@-8.0192043,110.4540921,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bca26a9584da5:0x3aa285bef505546d!8m2!3d-8.0192043!4d110.7424832!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWVFdEhkVmgzRUFF4AEA-gEECAAQLQ!16s%2Fg%2F11d_8l_xqt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bedoyo/@-8.0192043,110.4540921,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bca26a9584da5:0x3aa285bef505546d!8m2!3d-8.0192043!4d110.7424832!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWVFdEhkVmgzRUFF4AEA-gEECAAQLQ!16s%2Fg%2F11d_8l_xqt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1514,25 +1482,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-8.036227</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.036227</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.467425</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jowa/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bac2985445ea7:0x9d28744adcebad38!8m2!3d-8.0362268!4d110.4674254!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU01qWm1NV1pCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11dx90b764?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jowa/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bac2985445ea7:0x9d28744adcebad38!8m2!3d-8.0362268!4d110.4674254!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU01qWm1NV1pCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11dx90b764?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1551,25 +1518,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.1</v>
+        <v>-7.938063</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.938063</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.575484</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sompil/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cda267e1aa1:0x735bb64e4ecde96b!8m2!3d-7.9380633!4d110.5754839!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyZUMxRVpWZDNFQUXgAQD6AQQIABAy!16s%2Fg%2F11c5bk95my?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sompil/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cda267e1aa1:0x735bb64e4ecde96b!8m2!3d-7.9380633!4d110.5754839!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyZUMxRVpWZDNFQUXgAQD6AQQIABAy!16s%2Fg%2F11c5bk95my?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1588,25 +1554,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-8.015691</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.015691</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.419058</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Panggang/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bab8c17217cf9:0x18b8c0518022cb90!8m2!3d-8.0156914!4d110.4190584!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJIT1VsWE5sbG5FQUXgAQD6AQQIOxA9!16s%2Fg%2F11f042411h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Panggang/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bab8c17217cf9:0x18b8c0518022cb90!8m2!3d-8.0156914!4d110.4190584!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJIT1VsWE5sbG5FQUXgAQD6AQQIOxA9!16s%2Fg%2F11f042411h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1625,25 +1590,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.1</v>
+        <v>-7.9163</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.9163</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.536447</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Banaran/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d712a7f93ef:0x70e493d3d848181b!8m2!3d-7.9162997!4d110.5364473!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2QzRnhiV3hSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bw5zq7l1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Banaran/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d712a7f93ef:0x70e493d3d848181b!8m2!3d-7.9162997!4d110.5364473!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2QzRnhiV3hSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bw5zq7l1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1662,25 +1626,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-8.094617</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.094617</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.568749</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tungkluk,Kemadang/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb1ccee592ca3:0x4062a75ff8bdc11a!8m2!3d-8.0946167!4d110.5687493!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU1VeDJaVkZSRUFF4AEA-gEFCMoCECw!16s%2Fg%2F11ghtnh46m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tungkluk,Kemadang/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb1ccee592ca3:0x4062a75ff8bdc11a!8m2!3d-8.0946167!4d110.5687493!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU1VeDJaVkZSRUFF4AEA-gEFCMoCECw!16s%2Fg%2F11ghtnh46m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1699,25 +1662,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>-7.913828</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.913828</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.555643</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gading/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d08fe672db3:0x605f93427bc7af45!8m2!3d-7.9138278!4d110.555643!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMmNuSmhMVU5SRUFF4AEA-gEECAAQQg!16s%2Fg%2F11cs4mb4yy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gading/@-8.0362268,110.1790343,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d08fe672db3:0x605f93427bc7af45!8m2!3d-7.9138278!4d110.555643!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMmNuSmhMVU5SRUFF4AEA-gEECAAQQg!16s%2Fg%2F11cs4mb4yy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1736,25 +1698,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-8.061225</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.061225</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.653851</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Panggul/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb6fac395a7f7:0x69d7244c8d6a7b73!8m2!3d-8.0612252!4d110.6538511!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QY1U1MlIyZDNSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c60ms5ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Panggul/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb6fac395a7f7:0x69d7244c8d6a7b73!8m2!3d-8.0612252!4d110.6538511!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QY1U1MlIyZDNSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c60ms5ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1773,25 +1734,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-8.016436000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.016436000000001</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.587496</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B8%EA%A6%AD%EA%A6%BA%EA%A6%B4+Pasar+Mulo/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb3c154243aa3:0x14a565d73176d2fe!8m2!3d-8.0164358!4d110.5874955!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRWVVdDJjSFJuUlJBQuABAPoBBAgAEEI!16s%2Fg%2F11bwfm7jtg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B8%EA%A6%AD%EA%A6%BA%EA%A6%B4+Pasar+Mulo/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb3c154243aa3:0x14a565d73176d2fe!8m2!3d-8.0164358!4d110.5874955!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRWVVdDJjSFJuUlJBQuABAPoBBAgAEEI!16s%2Fg%2F11bwfm7jtg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1810,25 +1770,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.1</v>
+        <v>-7.939323</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.939323</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.638737</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b49b0bc52a5:0xf6ebf17552b748cf!8m2!3d-7.9393229!4d110.6387371!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGFIVXlhMk5SRUFF4AEA-gEECAAQFw!16s%2Fg%2F11ckkz8m0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage/@-8.0612252,110.36546,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b49b0bc52a5:0xf6ebf17552b748cf!8m2!3d-7.9393229!4d110.6387371!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGFIVXlhMk5SRUFF4AEA-gEECAAQFw!16s%2Fg%2F11ckkz8m0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1851,25 +1810,24 @@
           <t>0817-5414-988</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.924999</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.924999</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.518463</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+TANI+KALURAHAN+NGLERI/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a53feddbb37b5:0xcb6016f5fdc286d0!8m2!3d-7.9249991!4d110.5184631!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBBm1hcmtldOABAA!16s%2Fg%2F11kgcqr3_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+TANI+KALURAHAN+NGLERI/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a53feddbb37b5:0xcb6016f5fdc286d0!8m2!3d-7.9249991!4d110.5184631!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBBm1hcmtldOABAA!16s%2Fg%2F11kgcqr3_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1888,25 +1846,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.3</v>
+        <v>-8.004662</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.004662</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.55973</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sodo/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb24faefd0765:0xd341f07c8d36da64!8m2!3d-8.004662!4d110.5597303!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5uWDJJeWJVcDNFQUXgAQD6AQQIABA-!16s%2Fg%2F11f263y0yk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sodo/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb24faefd0765:0xd341f07c8d36da64!8m2!3d-8.004662!4d110.5597303!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5uWDJJeWJVcDNFQUXgAQD6AQQIABA-!16s%2Fg%2F11f263y0yk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1925,25 +1882,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.2</v>
+        <v>-7.870839</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.870839</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.621764</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gojo/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4bf94cbc10c7:0xe307c9cdfe791f4b!8m2!3d-7.8708392!4d110.6217644!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGQxQjVVMWRSRUFF4AEA-gEECAAQPQ!16s%2Fg%2F1q67dhtfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gojo/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4bf94cbc10c7:0xe307c9cdfe791f4b!8m2!3d-7.8708392!4d110.6217644!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGQxQjVVMWRSRUFF4AEA-gEECAAQPQ!16s%2Fg%2F1q67dhtfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1962,25 +1918,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.4</v>
+        <v>-7.829019</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.829019</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.453848</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a50e117b86db5:0xc27b9c361050e8e6!8m2!3d-7.8290195!4d110.4538481!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGJGOVVZUzEzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11bzrkv4j2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a50e117b86db5:0xc27b9c361050e8e6!8m2!3d-7.8290195!4d110.4538481!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGJGOVVZUzEzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11bzrkv4j2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1999,25 +1954,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-8.001837999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.001837999999999</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.512312</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Paliyan/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bad84f9eb15e9:0x708730c12d33b43!8m2!3d-8.0018381!4d110.5123121!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQmMxQnVSRkozRUFF4AEA-gEECAAQRw!16s%2Fg%2F11b7xrwtgx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Paliyan/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bad84f9eb15e9:0x708730c12d33b43!8m2!3d-8.0018381!4d110.5123121!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQmMxQnVSRkozRUFF4AEA-gEECAAQRw!16s%2Fg%2F11b7xrwtgx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2036,25 +1990,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.3</v>
+        <v>-7.96043</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.96043</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.59711</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bambu+Kepek/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb34648536dd5:0x3b8ea1b78d797d25!8m2!3d-7.9604303!4d110.59711!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMk1tTTJOamhuUlJBQuABAPoBBAgAEDo!16s%2Fg%2F11g7zxgwyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bambu+Kepek/@-7.9249991,110.230072,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb34648536dd5:0x3b8ea1b78d797d25!8m2!3d-7.9604303!4d110.59711!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMk1tTTJOamhuUlJBQuABAPoBBAgAEDo!16s%2Fg%2F11g7zxgwyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2073,25 +2026,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.3</v>
+        <v>-8.165799</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.165799</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.770535</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngrancah/@-8.1657992,110.482144,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bc6e793ba00a1:0xd02f6493a15cc6a4!8m2!3d-8.1657992!4d110.7705351!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd05sOXVSMjVSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11cm3j3z_3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngrancah/@-8.1657992,110.482144,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bc6e793ba00a1:0xd02f6493a15cc6a4!8m2!3d-8.1657992!4d110.7705351!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd05sOXVSMjVSUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11cm3j3z_3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2110,25 +2062,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.1</v>
+        <v>-8.033588999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.033588999999999</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.404738</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klampok/@-8.0335888,110.1163467,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7babe7a8f62ae3:0x5b485e164ca31a5f!8m2!3d-8.0335888!4d110.4047378!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNXUm1ZV2xuUlJBQuABAPoBBAgAECg!16s%2Fg%2F11dz3k29n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klampok/@-8.0335888,110.1163467,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7babe7a8f62ae3:0x5b485e164ca31a5f!8m2!3d-8.0335888!4d110.4047378!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNXUm1ZV2xuUlJBQuABAPoBBAgAECg!16s%2Fg%2F11dz3k29n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2147,25 +2098,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.4</v>
+        <v>-8.01421</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.01421</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.674677</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Semuluh/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5cf0c17e1bf:0x52a198fe1f1fa380!8m2!3d-8.0142104!4d110.6746766!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE1XVklTRlpSRUFF4AEA-gEECAAQLg!16s%2Fg%2F11bxfv829r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Semuluh/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5cf0c17e1bf:0x52a198fe1f1fa380!8m2!3d-8.0142104!4d110.6746766!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE1XVklTRlpSRUFF4AEA-gEECAAQLg!16s%2Fg%2F11bxfv829r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2184,25 +2134,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.3</v>
+        <v>-8.149531</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.149531</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.711525</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jepitu/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb880062b5815:0x52e9dae8629da204!8m2!3d-8.1495312!4d110.7115245!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYUhaUVRHUkJFQUXgAQD6AQUIxwEQJQ!16s%2Fg%2F11gb413_rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jepitu/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb880062b5815:0x52e9dae8629da204!8m2!3d-8.1495312!4d110.7115245!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYUhaUVRHUkJFQUXgAQD6AQUIxwEQJQ!16s%2Fg%2F11gb413_rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2221,25 +2170,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>-8.083114</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.083114</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.764419</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+BARAN+RONGKOP/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bc8f49480b1b1:0xb79e8bd980e26761!8m2!3d-8.0831145!4d110.764419!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOemRIQmZNR1ZSRUFF4AEA-gEECAAQMQ!16s%2Fg%2F11cn0sncv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+BARAN+RONGKOP/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bc8f49480b1b1:0xb79e8bd980e26761!8m2!3d-8.0831145!4d110.764419!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOemRIQmZNR1ZSRUFF4AEA-gEECAAQMQ!16s%2Fg%2F11cn0sncv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2258,25 +2206,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-8.070959</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.070959</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.674341</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Cuwelo/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb7ab8a340a7f:0xb9789deabf23facc!8m2!3d-8.0709592!4d110.6743407!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGN6VkVka0ZSRUFF4AEA-gEECAAQIA!16s%2Fg%2F11bx9y3qk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Cuwelo/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb7ab8a340a7f:0xb9789deabf23facc!8m2!3d-8.0709592!4d110.6743407!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGN6VkVka0ZSRUFF4AEA-gEECAAQIA!16s%2Fg%2F11bx9y3qk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2295,25 +2242,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.938898</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.938898</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.582766</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Hewan+Siyono+Harjo/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cc541d70d1f:0x69090f8c79159a79!8m2!3d-7.938898!4d110.5827661!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDWNhdHRsZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRYM1JmUVcxM1JSQULgAQD6AQUItgEQSA!16s%2Fg%2F11b6_nvsfb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Hewan+Siyono+Harjo/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4cc541d70d1f:0x69090f8c79159a79!8m2!3d-7.938898!4d110.5827661!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDWNhdHRsZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRYM1JmUVcxM1JSQULgAQD6AQUItgEQSA!16s%2Fg%2F11b6_nvsfb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2332,25 +2278,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.925415</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.925415</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.594627</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ekologis+Argo+Wijil+Desa+Gari/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c94e8777801:0x2aa7d73382a82db!8m2!3d-7.9254146!4d110.5946265!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUU0xbFBPV2xSUlJBQuABAPoBBAgAECc!16s%2Fg%2F11c2j3v43l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ekologis+Argo+Wijil+Desa+Gari/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4c94e8777801:0x2aa7d73382a82db!8m2!3d-7.9254146!4d110.5946265!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUU0xbFBPV2xSUlJBQuABAPoBBAgAECc!16s%2Fg%2F11c2j3v43l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2369,25 +2314,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>-7.958867</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.958867</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.63849</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngricik/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5944c99833b:0x3250c2c5c2b43179!8m2!3d-7.9588666!4d110.6384896!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEWZyZXNoX2Zvb2RfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTkhBelVXaG5SUkFC4AEA-gEECAAQLA!16s%2Fg%2F11h22r4c5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngricik/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5944c99833b:0x3250c2c5c2b43179!8m2!3d-7.9588666!4d110.6384896!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEWZyZXNoX2Zvb2RfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTkhBelVXaG5SUkFC4AEA-gEECAAQLA!16s%2Fg%2F11h22r4c5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2406,25 +2350,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.4</v>
+        <v>-7.814653</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.814653</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.721328</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sambeng/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a37d22b9e64e5:0xc12534e9bc150352!8m2!3d-7.8146534!4d110.7213276!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ2YTNRelJFTm5FQUXgAQD6AQQIABBI!16s%2Fg%2F11c0rrdlrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sambeng/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a37d22b9e64e5:0xc12534e9bc150352!8m2!3d-7.8146534!4d110.7213276!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ2YTNRelJFTm5FQUXgAQD6AQQIABBI!16s%2Fg%2F11c0rrdlrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2443,25 +2386,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.914114</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.914114</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.556533</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pekage+(Pasar+Kuliner+Gading)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d61072ab62b:0x57f64c8937c54c96!8m2!3d-7.9141142!4d110.556533!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRvdXJpc3RfYXR0cmFjdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2VHSm1iRk5SRUFF4AEA-gEECAAQJA!16s%2Fg%2F11tmn0mcdc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pekage+(Pasar+Kuliner+Gading)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4d61072ab62b:0x57f64c8937c54c96!8m2!3d-7.9141142!4d110.556533!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRvdXJpc3RfYXR0cmFjdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2VHSm1iRk5SRUFF4AEA-gEECAAQJA!16s%2Fg%2F11tmn0mcdc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -2484,25 +2426,24 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.3</v>
+        <v>-8.073164999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.073164999999999</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.622088</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Argobinangun/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb72a3cb3c743:0xa1eb1eeb30d9338e!8m2!3d-8.0731646!4d110.6220876!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11c1wsd62d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Argobinangun/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb72a3cb3c743:0xa1eb1eeb30d9338e!8m2!3d-8.0731646!4d110.6220876!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11c1wsd62d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2521,25 +2462,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.3</v>
+        <v>-8.091051</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.091051</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.627411</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bintaos+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A7%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%8E%EA%A6%B1%EA%A7%80)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb737e8ff2957:0x3a9cce8d4ea275f!8m2!3d-8.0910509!4d110.6274114!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd2NrOHphbEYzRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11b7tj7wrf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bintaos+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A7%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%8E%EA%A6%B1%EA%A7%80)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb737e8ff2957:0x3a9cce8d4ea275f!8m2!3d-8.0910509!4d110.6274114!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd2NrOHphbEYzRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11b7tj7wrf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2558,25 +2498,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.2</v>
+        <v>-7.973517</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.973517</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.545004</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/pasar+Wiyoko(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%AE%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb295691caaf9:0xd1c25c3dd14e9163!8m2!3d-7.9735171!4d110.5450036!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaExUZ3RhbkJCUlJBQuABAPoBBAgAECU!16s%2Fg%2F11dxd2g2xx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/pasar+Wiyoko(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%AE%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4)/@-8.0142104,110.3862855,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb295691caaf9:0xd1c25c3dd14e9163!8m2!3d-7.9735171!4d110.5450036!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaExUZ3RhbkJCUlJBQuABAPoBBAgAECU!16s%2Fg%2F11dxd2g2xx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2595,25 +2534,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.3</v>
+        <v>-7.787953</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.787953</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.594023</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+GEMPOL/@-7.7879534,110.3056315,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4f5e39b07dff:0xaa3d2426d005d9e4!8m2!3d-7.7879534!4d110.5940226!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaGMzUmhXbGxCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11cnwfpwp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+GEMPOL/@-7.7879534,110.3056315,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4f5e39b07dff:0xaa3d2426d005d9e4!8m2!3d-7.7879534!4d110.5940226!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaGMzUmhXbGxCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11cnwfpwp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2636,25 +2574,24 @@
           <t>0823-2764-4008</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.3</v>
+        <v>-8.047933</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.047933</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.521821</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Relokasi+Pasar+Trowono/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae1d86b6524f:0x4bb0e7b7a548c35d!8m2!3d-8.047933!4d110.5218205!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRM0xWb3pOVlZCRUFF4AEA-gEECAAQMw!16s%2Fg%2F11b_2njk80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Relokasi+Pasar+Trowono/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae1d86b6524f:0x4bb0e7b7a548c35d!8m2!3d-8.047933!4d110.5218205!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRM0xWb3pOVlZCRUFF4AEA-gEECAAQMw!16s%2Fg%2F11b_2njk80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2677,25 +2614,24 @@
           <t>0822-3228-0414</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.5</v>
+        <v>-7.936259</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.936259</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.6247</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Argo+Midang/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b15e26ebb11:0xf2a37faa95a7c5d7!8m2!3d-7.9362595!4d110.6246997!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11fpjs5dr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Argo+Midang/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b15e26ebb11:0xf2a37faa95a7c5d7!8m2!3d-7.9362595!4d110.6246997!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11fpjs5dr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2714,25 +2650,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.6</v>
+        <v>-8.132523000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.132523000000001</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.655426</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngeplang/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb9b7cc57191d:0x933d2e6400735ae1!8m2!3d-8.132523!4d110.655426!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBBm1hcmtldOABAA!16s%2Fg%2F11bzq3wypg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngeplang/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb9b7cc57191d:0x933d2e6400735ae1!8m2!3d-8.132523!4d110.655426!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBBm1hcmtldOABAA!16s%2Fg%2F11bzq3wypg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2759,25 +2694,24 @@
           <t>0877-8862-3795</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.6</v>
+        <v>-8.011290000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.011290000000001</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.624067</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Telaga+Jonge/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5b3e88e12d9:0xd67598b7f8bc890c!8m2!3d-8.0112904!4d110.624067!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11gyxm6x8q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Telaga+Jonge/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb5b3e88e12d9:0xd67598b7f8bc890c!8m2!3d-8.0112904!4d110.624067!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11gyxm6x8q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2796,25 +2730,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.4</v>
+        <v>-8.002176</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.002176</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.65824</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Hewan+Munggi/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb44c04410e33:0xa3ee755845eb7741!8m2!3d-8.0021765!4d110.6582404!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDWNhdHRsZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZkelZITkRCQlJSQULgAQD6AQQIABA6!16s%2Fg%2F11gbfrwzz3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Hewan+Munggi/@-8.047933,110.2334294,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb44c04410e33:0xa3ee755845eb7741!8m2!3d-8.0021765!4d110.6582404!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDWNhdHRsZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZkelZITkRCQlJSQULgAQD6AQQIABA6!16s%2Fg%2F11gbfrwzz3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2833,25 +2766,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.3</v>
+        <v>-7.942606</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.942606</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.770715</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage+Tambakromo/@-7.9426056,110.4823236,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bcb2d9d081db5:0x716867985d963db4!8m2!3d-7.9426056!4d110.7707147!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWFVOUxRMkYzRUFF4AEA-gEECAAQSA!16s%2Fg%2F11b8yysw0h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage+Tambakromo/@-7.9426056,110.4823236,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bcb2d9d081db5:0x716867985d963db4!8m2!3d-7.9426056!4d110.7707147!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWFVOUxRMkYzRUFF4AEA-gEECAAQSA!16s%2Fg%2F11b8yysw0h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2870,25 +2802,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>-8.036649000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.036649000000001</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.430693</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legundi/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bac010d5c7963:0xf98885e3e80f1b88!8m2!3d-8.0366487!4d110.4306934!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5YUU1SFIyWkJFQUXgAQD6AQQIcBAs!16s%2Fg%2F11cn3h9417?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legundi/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bac010d5c7963:0xf98885e3e80f1b88!8m2!3d-8.0366487!4d110.4306934!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5YUU1SFIyWkJFQUXgAQD6AQQIcBAs!16s%2Fg%2F11cn3h9417?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2907,25 +2838,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.3</v>
+        <v>-7.901031</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.901031</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.469835</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A3%EA%A6%81%EA%A6%AE%EA%A6%BA%EA%A6%B1%EA%A6%B6+Pasar+Dangwesi/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a53b3b0b01cd9:0xe3bda959cf066a1e!8m2!3d-7.9010313!4d110.4698347!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2IxcElWR3BSUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11c2ldkpg8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A3%EA%A6%81%EA%A6%AE%EA%A6%BA%EA%A6%B1%EA%A6%B6+Pasar+Dangwesi/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a53b3b0b01cd9:0xe3bda959cf066a1e!8m2!3d-7.9010313!4d110.4698347!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2IxcElWR3BSUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11c2ldkpg8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2944,25 +2874,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.3</v>
+        <v>-8.049445</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.049445</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.52089</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Hewan+Trowono/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae1d8d747f01:0xebd421fbb7d591f!8m2!3d-8.0494455!4d110.5208902!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBCXBldF9zdG9yZeABAA!16s%2Fg%2F11b909zg_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Hewan+Trowono/@-8.0366487,110.1423023,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bae1d8d747f01:0xebd421fbb7d591f!8m2!3d-8.0494455!4d110.5208902!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bJIBCXBldF9zdG9yZeABAA!16s%2Fg%2F11b909zg_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2981,25 +2910,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.4</v>
+        <v>-7.841724</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.841724</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.593501</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gedangsari/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4ec1e4d92645:0x7b73461821730534!8m2!3d-7.8417238!4d110.5935008!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONE0ySlhPRXhSRUFF4AEA-gEECAAQFA!16s%2Fg%2F11g6nk0nmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gedangsari/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4ec1e4d92645:0x7b73461821730534!8m2!3d-7.8417238!4d110.5935008!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONE0ySlhPRXhSRUFF4AEA-gEECAAQFA!16s%2Fg%2F11g6nk0nmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3018,25 +2946,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-8.062469999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.062469999999999</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.704884</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngenep/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb62c185f8c49:0xe3652b76546bfb2f!8m2!3d-8.0624702!4d110.7048837!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MTFU5MmNFbG5FQUXgAQD6AQQIABAa!16s%2Fg%2F11c5cs7ncx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngenep/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7bb62c185f8c49:0xe3652b76546bfb2f!8m2!3d-8.0624702!4d110.7048837!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MTFU5MmNFbG5FQUXgAQD6AQQIABAa!16s%2Fg%2F11c5cs7ncx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3055,25 +2982,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.3</v>
+        <v>-7.936266</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.936266</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.624613</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage+Grogol+3+Bejiharjo/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b5a6bb7bc0f:0x6eeb9a2dfef7b96e!8m2!3d-7.9362665!4d110.6246132!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2NWOVBjemhCUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11c6vtq0fv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage+Grogol+3+Bejiharjo/@-7.8417238,110.3051097,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Gunungkidul!3m6!1s0x2e7a4b5a6bb7bc0f:0x6eeb9a2dfef7b96e!8m2!3d-7.9362665!4d110.6246132!15sCh1QYXNhciBUcmFkaXNpb25hbCBHdW51bmdraWR1bFofIh1wYXNhciB0cmFkaXNpb25hbCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2NWOVBjemhCUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11c6vtq0fv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
